--- a/files/1_distribucion_por_meses_del_total_de_perros_recogidos_por_entidades_de_proteccion_animal.xlsx
+++ b/files/1_distribucion_por_meses_del_total_de_perros_recogidos_por_entidades_de_proteccion_animal.xlsx
@@ -1,52 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\DB5PEPF00015C51\EXCELCNV\1a8d9589-575a-40ea-bef8-be1c43f0ae36\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rebec\OneDrive\Escritorio\ADALAB\Pair\promoG-modulo4-sprint2-pairprogramming-Patricia-Karine-Rebeca\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{346AB1F3-29AE-4592-8E62-5EE826488DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61807183-37B3-47D6-8A66-CB7B179C1838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22305" yWindow="4695" windowWidth="29010" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
-  <si>
-    <t>Periodo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>Parámetro</t>
   </si>
   <si>
-    <t>Año</t>
-  </si>
-  <si>
     <t>Enero</t>
   </si>
   <si>
@@ -183,13 +166,22 @@
   </si>
   <si>
     <t>4.7</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>8.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,7 +719,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1023,350 +1015,311 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1">
+        <v>2019</v>
+      </c>
+      <c r="C1">
+        <v>2020</v>
+      </c>
+      <c r="D1">
+        <v>2021</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+      <c r="F1">
+        <v>2017</v>
+      </c>
+      <c r="G1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
-        <v>2019</v>
-      </c>
-      <c r="D1">
-        <v>2020</v>
-      </c>
-      <c r="E1">
-        <v>2021</v>
-      </c>
-      <c r="F1">
-        <v>2022</v>
-      </c>
-      <c r="G1">
-        <v>2017</v>
-      </c>
-      <c r="H1">
-        <v>2018</v>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>8.5</v>
-      </c>
-      <c r="D2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
-        <v>7</v>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>8.4</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7">
-        <v>7.8</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8">
-        <v>8.9</v>
-      </c>
-      <c r="D8">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D10" t="s">
         <v>33</v>
-      </c>
-      <c r="C9">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D9">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
       </c>
       <c r="E10" t="s">
         <v>35</v>
       </c>
       <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
         <v>37</v>
       </c>
-      <c r="G10" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>38</v>
       </c>
-      <c r="H10" t="s">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
         <v>39</v>
       </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="C11">
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
         <v>9</v>
       </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13">
-        <v>8.1</v>
-      </c>
-      <c r="D13">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" t="s">
-        <v>5</v>
-      </c>
       <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
